--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="564">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T06:10:15+00:00</t>
+    <t>2022-11-19T22:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -811,6 +811,9 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-presentation-vs</t>
+  </si>
+  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -989,9 +992,6 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000072051</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -1026,6 +1026,9 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/legal-status-for-the-supply-vs</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1472,13 +1475,13 @@
     <t>PackagedProductDefinition.package.material.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.package.material.coding.version</t>
   </si>
   <si>
     <t>PackagedProductDefinition.package.material.coding.code</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/material-vs</t>
   </si>
   <si>
     <t>PackagedProductDefinition.package.material.coding.display</t>
@@ -1704,6 +1707,30 @@
   </si>
   <si>
     <t>Manufactured Item.Manufactured Item Quantity</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.amount.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.amount.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.amount.value</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.amount.comparator</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.amount.unit</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.amount.system</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.containedItem.amount.code</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>PackagedProductDefinition.package.package</t>
@@ -2012,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL159"/>
+  <dimension ref="A1:AL166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2045,7 +2072,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.44140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5349,13 +5376,11 @@
         <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>73</v>
@@ -5373,7 +5398,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5394,12 +5419,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5425,14 +5450,14 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5442,7 +5467,7 @@
         <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>73</v>
@@ -5481,7 +5506,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -5490,7 +5515,7 @@
         <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>94</v>
@@ -5502,12 +5527,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5533,16 +5558,16 @@
         <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -5591,7 +5616,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5612,12 +5637,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5640,13 +5665,13 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5697,7 +5722,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5712,7 +5737,7 @@
         <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>73</v>
@@ -5723,7 +5748,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5746,13 +5771,13 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5803,7 +5828,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5815,10 +5840,10 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5829,7 +5854,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5935,7 +5960,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6043,11 +6068,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6069,10 +6094,10 @@
         <v>129</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>132</v>
@@ -6127,7 +6152,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6153,7 +6178,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6179,10 +6204,10 @@
         <v>170</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6212,10 +6237,10 @@
         <v>214</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
@@ -6233,7 +6258,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6248,7 +6273,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -6259,7 +6284,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6365,7 +6390,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6473,7 +6498,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6496,19 +6521,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6557,7 +6582,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6578,12 +6603,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6689,7 +6714,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6797,7 +6822,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6823,16 +6848,16 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6842,7 +6867,7 @@
         <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>73</v>
@@ -7073,13 +7098,11 @@
         <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
@@ -7097,7 +7120,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7118,12 +7141,12 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7149,14 +7172,14 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
@@ -7205,7 +7228,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7226,12 +7249,12 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7254,19 +7277,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -7315,7 +7338,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7336,12 +7359,12 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7367,16 +7390,16 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7425,7 +7448,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7446,12 +7469,12 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7477,10 +7500,10 @@
         <v>170</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7510,10 +7533,10 @@
         <v>214</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
@@ -7531,7 +7554,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7557,7 +7580,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7663,7 +7686,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7771,7 +7794,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7794,19 +7817,19 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7855,7 +7878,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7876,12 +7899,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7987,7 +8010,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8095,7 +8118,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8121,16 +8144,16 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8140,7 +8163,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -8205,7 +8228,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8313,7 +8336,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8395,7 +8418,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8416,12 +8439,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8447,14 +8470,14 @@
         <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>73</v>
@@ -8503,7 +8526,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8524,12 +8547,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8552,19 +8575,19 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8613,7 +8636,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8634,12 +8657,12 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8665,16 +8688,16 @@
         <v>188</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8723,7 +8746,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8744,12 +8767,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8772,13 +8795,13 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8829,7 +8852,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8844,7 +8867,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
@@ -8855,7 +8878,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8961,7 +8984,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9069,11 +9092,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9095,10 +9118,10 @@
         <v>129</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>132</v>
@@ -9153,7 +9176,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9179,7 +9202,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9205,10 +9228,10 @@
         <v>170</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9259,7 +9282,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -9285,7 +9308,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9391,7 +9414,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9499,7 +9522,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9522,19 +9545,19 @@
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9583,7 +9606,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9604,12 +9627,12 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9715,7 +9738,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9823,7 +9846,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9849,16 +9872,16 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>73</v>
@@ -9868,7 +9891,7 @@
         <v>73</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -9933,7 +9956,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10041,7 +10064,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10123,7 +10146,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10144,12 +10167,12 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10175,14 +10198,14 @@
         <v>188</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10231,7 +10254,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10252,12 +10275,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10280,19 +10303,19 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10341,7 +10364,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10362,12 +10385,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10393,16 +10416,16 @@
         <v>188</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10451,7 +10474,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10472,12 +10495,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10503,10 +10526,10 @@
         <v>170</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10557,7 +10580,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10583,7 +10606,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10609,10 +10632,10 @@
         <v>170</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10663,7 +10686,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>82</v>
@@ -10689,7 +10712,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10795,7 +10818,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10903,7 +10926,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10926,19 +10949,19 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
@@ -10987,7 +11010,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -11008,12 +11031,12 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11119,7 +11142,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11227,7 +11250,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11253,16 +11276,16 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11272,7 +11295,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -11337,7 +11360,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11445,7 +11468,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11527,7 +11550,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11548,12 +11571,12 @@
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11579,14 +11602,14 @@
         <v>188</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>73</v>
@@ -11635,7 +11658,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11656,12 +11679,12 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11684,19 +11707,19 @@
         <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>73</v>
@@ -11745,7 +11768,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11766,12 +11789,12 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11797,16 +11820,16 @@
         <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>73</v>
@@ -11855,7 +11878,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11876,12 +11899,12 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11907,10 +11930,10 @@
         <v>196</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11961,7 +11984,7 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -11987,7 +12010,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12013,10 +12036,10 @@
         <v>228</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12067,7 +12090,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -12093,7 +12116,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12119,10 +12142,10 @@
         <v>170</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12152,10 +12175,10 @@
         <v>214</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>73</v>
@@ -12173,7 +12196,7 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -12199,7 +12222,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12222,13 +12245,13 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12236,7 +12259,7 @@
         <v>73</v>
       </c>
       <c r="P95" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q95" t="s" s="2">
         <v>73</v>
@@ -12281,7 +12304,7 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -12307,7 +12330,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12333,10 +12356,10 @@
         <v>202</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12387,7 +12410,7 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -12402,7 +12425,7 @@
         <v>94</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>73</v>
@@ -12413,7 +12436,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12436,13 +12459,13 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12493,7 +12516,7 @@
         <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -12505,10 +12528,10 @@
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
@@ -12519,7 +12542,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12625,7 +12648,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12733,11 +12756,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12759,10 +12782,10 @@
         <v>129</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>132</v>
@@ -12817,7 +12840,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12843,7 +12866,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12869,10 +12892,10 @@
         <v>141</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12923,7 +12946,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12938,7 +12961,7 @@
         <v>94</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>73</v>
@@ -12949,7 +12972,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12975,10 +12998,10 @@
         <v>170</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13011,7 +13034,7 @@
         <v>215</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13029,7 +13052,7 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -13044,7 +13067,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13055,7 +13078,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13161,7 +13184,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13269,7 +13292,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13292,19 +13315,19 @@
         <v>83</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>73</v>
@@ -13353,7 +13376,7 @@
         <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13374,12 +13397,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13485,7 +13508,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13593,7 +13616,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13619,16 +13642,16 @@
         <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
@@ -13638,7 +13661,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13703,7 +13726,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13811,7 +13834,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13893,7 +13916,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13914,12 +13937,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13945,14 +13968,14 @@
         <v>188</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
@@ -14001,7 +14024,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14022,12 +14045,12 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14050,19 +14073,19 @@
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>73</v>
@@ -14111,7 +14134,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14132,12 +14155,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14163,16 +14186,16 @@
         <v>188</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -14221,7 +14244,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14242,12 +14265,12 @@
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14270,13 +14293,13 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14327,7 +14350,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14342,7 +14365,7 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
@@ -14353,7 +14376,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14379,10 +14402,10 @@
         <v>170</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14412,10 +14435,10 @@
         <v>214</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14433,7 +14456,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14448,7 +14471,7 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
@@ -14459,7 +14482,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14565,7 +14588,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14673,7 +14696,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14696,19 +14719,19 @@
         <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>73</v>
@@ -14757,7 +14780,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14778,12 +14801,12 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14889,7 +14912,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14997,7 +15020,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15023,16 +15046,16 @@
         <v>96</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
@@ -15042,7 +15065,7 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>474</v>
+        <v>73</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -15273,13 +15296,11 @@
         <v>73</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>73</v>
+        <v>477</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>73</v>
@@ -15297,7 +15318,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -15318,12 +15339,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15349,14 +15370,14 @@
         <v>188</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15405,7 +15426,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15426,12 +15447,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15454,19 +15475,19 @@
         <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15515,7 +15536,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15536,12 +15557,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15567,16 +15588,16 @@
         <v>188</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
@@ -15625,7 +15646,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15646,12 +15667,12 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15677,10 +15698,10 @@
         <v>170</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15710,10 +15731,10 @@
         <v>214</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
@@ -15731,7 +15752,7 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
@@ -15746,7 +15767,7 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
@@ -15757,7 +15778,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15780,13 +15801,13 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -15837,7 +15858,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15849,10 +15870,10 @@
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>73</v>
@@ -15863,7 +15884,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15969,7 +15990,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16077,11 +16098,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16103,10 +16124,10 @@
         <v>129</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>132</v>
@@ -16161,7 +16182,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -16187,7 +16208,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16213,10 +16234,10 @@
         <v>170</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -16267,7 +16288,7 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -16293,7 +16314,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16399,7 +16420,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16507,7 +16528,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16530,19 +16551,19 @@
         <v>83</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>73</v>
@@ -16591,7 +16612,7 @@
         <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16612,12 +16633,12 @@
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16723,7 +16744,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16831,7 +16852,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16857,16 +16878,16 @@
         <v>96</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>73</v>
@@ -16876,7 +16897,7 @@
         <v>73</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
@@ -16941,7 +16962,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17049,7 +17070,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17131,7 +17152,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -17152,12 +17173,12 @@
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17183,14 +17204,14 @@
         <v>188</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>73</v>
@@ -17239,7 +17260,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17260,12 +17281,12 @@
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17288,19 +17309,19 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>73</v>
@@ -17349,7 +17370,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17370,12 +17391,12 @@
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17401,16 +17422,16 @@
         <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>73</v>
@@ -17459,7 +17480,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17480,12 +17501,12 @@
         <v>73</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17508,13 +17529,13 @@
         <v>83</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17565,7 +17586,7 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -17591,7 +17612,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17617,10 +17638,10 @@
         <v>170</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17671,7 +17692,7 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -17697,7 +17718,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17723,10 +17744,10 @@
         <v>202</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17777,7 +17798,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -17792,7 +17813,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17803,7 +17824,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17826,13 +17847,13 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17883,7 +17904,7 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -17895,10 +17916,10 @@
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -17909,7 +17930,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18015,7 +18036,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18123,11 +18144,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18149,10 +18170,10 @@
         <v>129</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>132</v>
@@ -18207,7 +18228,7 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -18233,7 +18254,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18259,10 +18280,10 @@
         <v>170</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -18292,10 +18313,10 @@
         <v>214</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18313,7 +18334,7 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>82</v>
@@ -18328,7 +18349,7 @@
         <v>94</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>73</v>
@@ -18339,7 +18360,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18362,13 +18383,13 @@
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18419,7 +18440,7 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
@@ -18434,7 +18455,7 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>73</v>
@@ -18445,7 +18466,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18468,13 +18489,13 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18525,7 +18546,7 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -18537,10 +18558,10 @@
         <v>73</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
@@ -18551,7 +18572,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18657,7 +18678,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18765,11 +18786,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -18791,10 +18812,10 @@
         <v>129</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M156" t="s" s="2">
         <v>132</v>
@@ -18849,7 +18870,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -18875,7 +18896,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18898,13 +18919,13 @@
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -18955,7 +18976,7 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>82</v>
@@ -18970,7 +18991,7 @@
         <v>94</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>73</v>
@@ -18981,7 +19002,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19007,10 +19028,10 @@
         <v>232</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19061,7 +19082,7 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>74</v>
@@ -19076,7 +19097,7 @@
         <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>73</v>
@@ -19087,7 +19108,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19098,7 +19119,7 @@
         <v>74</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>73</v>
@@ -19107,16 +19128,16 @@
         <v>73</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>552</v>
+        <v>151</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>553</v>
+        <v>152</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19167,27 +19188,783 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>551</v>
+        <v>153</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI159" t="s" s="2">
+      <c r="G160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P161" s="2"/>
+      <c r="Q161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI161" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AJ159" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL159" t="s" s="2">
+      <c r="AJ161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M162" s="2"/>
+      <c r="N162" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P162" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Q162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X162" s="2"/>
+      <c r="Y162" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL162" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P163" s="2"/>
+      <c r="Q163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M164" s="2"/>
+      <c r="N164" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P164" s="2"/>
+      <c r="Q164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P165" s="2"/>
+      <c r="Q165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X165" s="2"/>
+      <c r="Y165" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P166" s="2"/>
+      <c r="Q166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL166" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="553">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -811,9 +811,6 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-presentation-vs</t>
-  </si>
-  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -860,6 +857,9 @@
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-presentation-vs</t>
+  </si>
+  <si>
     <t>Quantity.code</t>
   </si>
   <si>
@@ -1448,58 +1448,25 @@
     <t>EMA IG 4.8.7</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/material-vs</t>
+  </si>
+  <si>
+    <t>Package Item (Container).Material</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.package.alternateMaterial</t>
+  </si>
+  <si>
+    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
+  </si>
+  <si>
+    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material (e.g. different types of plastic for a blister sleeve).</t>
+  </si>
+  <si>
     <t>A material used in the construction of packages and their components.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/package-material</t>
-  </si>
-  <si>
-    <t>Package Item (Container).Material</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.system</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.code</t>
-  </si>
-  <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/material-vs</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.text</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.alternateMaterial</t>
-  </si>
-  <si>
-    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
-  </si>
-  <si>
-    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material (e.g. different types of plastic for a blister sleeve).</t>
   </si>
   <si>
     <t>Package Item (Container).Alternate Material</t>
@@ -2039,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL166"/>
+  <dimension ref="A1:AL155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5376,29 +5343,31 @@
         <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5419,12 +5388,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5450,14 +5419,14 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5467,55 +5436,55 @@
         <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="S32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>94</v>
@@ -5527,12 +5496,12 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5558,16 +5527,16 @@
         <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -5592,13 +5561,11 @@
         <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>73</v>
@@ -14432,13 +14399,11 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X115" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X115" s="2"/>
+      <c r="Y115" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14471,7 +14436,7 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
@@ -14482,7 +14447,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14493,7 +14458,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14502,16 +14467,16 @@
         <v>73</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>151</v>
+        <v>469</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>152</v>
+        <v>470</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14538,13 +14503,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>73</v>
+        <v>471</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>73</v>
+        <v>472</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14562,37 +14527,37 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>153</v>
+        <v>468</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>73</v>
+        <v>473</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14608,20 +14573,18 @@
         <v>73</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>130</v>
+        <v>475</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14658,19 +14621,19 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>159</v>
+        <v>474</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
@@ -14682,21 +14645,21 @@
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>73</v>
+        <v>477</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14707,7 +14670,7 @@
         <v>74</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>73</v>
@@ -14716,23 +14679,19 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14780,19 +14739,19 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14801,23 +14760,23 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14829,15 +14788,17 @@
         <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
@@ -14886,19 +14847,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14912,11 +14873,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -14929,24 +14890,26 @@
         <v>73</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N120" s="2"/>
+      <c r="N120" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>73</v>
       </c>
@@ -14982,19 +14945,19 @@
         <v>73</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -15015,12 +14978,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15028,7 +14991,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>82</v>
@@ -15043,20 +15006,16 @@
         <v>83</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>311</v>
+        <v>482</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
@@ -15104,7 +15063,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>315</v>
+        <v>481</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -15125,12 +15084,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15150,20 +15109,18 @@
         <v>73</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -15212,7 +15169,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>321</v>
+        <v>153</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15224,7 +15181,7 @@
         <v>73</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>73</v>
@@ -15233,23 +15190,23 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>322</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>73</v>
@@ -15258,21 +15215,21 @@
         <v>73</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -15296,41 +15253,43 @@
         <v>73</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X123" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y123" t="s" s="2">
-        <v>477</v>
+        <v>73</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>73</v>
@@ -15339,12 +15298,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>329</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15355,7 +15314,7 @@
         <v>74</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>73</v>
@@ -15367,17 +15326,19 @@
         <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M124" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N124" t="s" s="2">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15426,13 +15387,13 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>73</v>
@@ -15447,12 +15408,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15472,23 +15433,19 @@
         <v>73</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>73</v>
       </c>
@@ -15536,7 +15493,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>342</v>
+        <v>153</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15548,7 +15505,7 @@
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15557,23 +15514,23 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>343</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>73</v>
@@ -15582,23 +15539,21 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>73</v>
       </c>
@@ -15634,31 +15589,31 @@
         <v>73</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -15667,12 +15622,12 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>350</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15683,7 +15638,7 @@
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
@@ -15695,16 +15650,20 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>482</v>
+        <v>311</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15713,7 +15672,7 @@
         <v>73</v>
       </c>
       <c r="R127" t="s" s="2">
-        <v>73</v>
+        <v>490</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>73</v>
@@ -15728,13 +15687,13 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>467</v>
+        <v>73</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
@@ -15752,13 +15711,13 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>481</v>
+        <v>315</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
@@ -15767,18 +15726,18 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>484</v>
+        <v>73</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15789,7 +15748,7 @@
         <v>74</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>73</v>
@@ -15801,15 +15760,17 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>486</v>
+        <v>318</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15858,33 +15819,33 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>485</v>
+        <v>321</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>488</v>
+        <v>73</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15904,19 +15865,21 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15964,7 +15927,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>153</v>
+        <v>328</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15976,7 +15939,7 @@
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>73</v>
@@ -15985,23 +15948,23 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>154</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -16010,21 +15973,21 @@
         <v>73</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
       </c>
@@ -16072,19 +16035,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16093,47 +16056,47 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>154</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>138</v>
+        <v>341</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
@@ -16182,19 +16145,19 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16203,12 +16166,12 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>126</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16216,7 +16179,7 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>82</v>
@@ -16231,16 +16194,20 @@
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>493</v>
+        <v>345</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16288,7 +16255,7 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>492</v>
+        <v>349</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -16309,12 +16276,12 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>73</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16322,7 +16289,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16334,16 +16301,16 @@
         <v>73</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>151</v>
+        <v>498</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>152</v>
+        <v>499</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16394,7 +16361,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>153</v>
+        <v>496</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16406,7 +16373,7 @@
         <v>73</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>73</v>
@@ -16415,16 +16382,16 @@
         <v>73</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16440,20 +16407,18 @@
         <v>73</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>130</v>
+        <v>501</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>73</v>
@@ -16490,19 +16455,19 @@
         <v>73</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>159</v>
+        <v>500</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
@@ -16514,7 +16479,7 @@
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16523,12 +16488,12 @@
         <v>73</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16551,20 +16516,16 @@
         <v>83</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>302</v>
+        <v>504</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>73</v>
       </c>
@@ -16612,7 +16573,7 @@
         <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>306</v>
+        <v>503</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16627,18 +16588,18 @@
         <v>94</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>307</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16649,7 +16610,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16658,16 +16619,16 @@
         <v>73</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>151</v>
+        <v>508</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>152</v>
+        <v>509</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16718,44 +16679,44 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>153</v>
+        <v>507</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>73</v>
+        <v>510</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>73</v>
@@ -16767,17 +16728,15 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>73</v>
@@ -16814,31 +16773,31 @@
         <v>73</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16852,18 +16811,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16872,23 +16831,21 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>311</v>
+        <v>130</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16897,7 +16854,7 @@
         <v>73</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>501</v>
+        <v>73</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
@@ -16936,19 +16893,19 @@
         <v>73</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16957,46 +16914,48 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>73</v>
       </c>
@@ -17044,19 +17003,19 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>73</v>
@@ -17065,12 +17024,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>322</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17078,7 +17037,7 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>82</v>
@@ -17093,18 +17052,16 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>324</v>
+        <v>515</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>325</v>
+        <v>516</v>
       </c>
       <c r="M140" s="2"/>
-      <c r="N140" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17128,13 +17085,13 @@
         <v>73</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>73</v>
+        <v>517</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>73</v>
+        <v>518</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>73</v>
@@ -17152,10 +17109,10 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>328</v>
+        <v>514</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>82</v>
@@ -17167,18 +17124,18 @@
         <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>73</v>
+        <v>519</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>329</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17201,18 +17158,16 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>188</v>
+        <v>521</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>331</v>
+        <v>522</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>332</v>
+        <v>523</v>
       </c>
       <c r="M141" s="2"/>
-      <c r="N141" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>73</v>
       </c>
@@ -17260,7 +17215,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>334</v>
+        <v>520</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17275,18 +17230,18 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>73</v>
+        <v>524</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17297,7 +17252,7 @@
         <v>74</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>73</v>
@@ -17309,20 +17264,16 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>338</v>
+        <v>526</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>73</v>
       </c>
@@ -17370,33 +17321,33 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>342</v>
+        <v>525</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17416,23 +17367,19 @@
         <v>73</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>345</v>
+        <v>151</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>73</v>
       </c>
@@ -17480,7 +17427,7 @@
         <v>73</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>349</v>
+        <v>153</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -17492,7 +17439,7 @@
         <v>73</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>73</v>
@@ -17501,23 +17448,23 @@
         <v>73</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>350</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>73</v>
@@ -17526,18 +17473,20 @@
         <v>73</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>508</v>
+        <v>129</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>509</v>
+        <v>130</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M144" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>73</v>
@@ -17586,19 +17535,19 @@
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>73</v>
@@ -17607,16 +17556,16 @@
         <v>73</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17629,22 +17578,26 @@
         <v>73</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>512</v>
+        <v>290</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>73</v>
       </c>
@@ -17692,7 +17645,7 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>511</v>
+        <v>292</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -17704,7 +17657,7 @@
         <v>73</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>73</v>
@@ -17713,12 +17666,12 @@
         <v>73</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17726,10 +17679,10 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>73</v>
@@ -17741,13 +17694,13 @@
         <v>83</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>202</v>
+        <v>533</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17798,13 +17751,13 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>73</v>
@@ -17813,7 +17766,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17824,7 +17777,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17835,7 +17788,7 @@
         <v>74</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>73</v>
@@ -17847,13 +17800,13 @@
         <v>83</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17904,22 +17857,22 @@
         <v>73</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>73</v>
@@ -17930,7 +17883,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17953,7 +17906,7 @@
         <v>73</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>151</v>
@@ -18036,7 +17989,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18106,16 +18059,16 @@
         <v>73</v>
       </c>
       <c r="AA149" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD149" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE149" t="s" s="2">
         <v>159</v>
@@ -18144,42 +18097,42 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>73</v>
@@ -18228,19 +18181,19 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>73</v>
@@ -18249,12 +18202,12 @@
         <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>126</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18262,7 +18215,7 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>82</v>
@@ -18271,26 +18224,30 @@
         <v>73</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>526</v>
+        <v>246</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>527</v>
+        <v>247</v>
       </c>
       <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+      <c r="N151" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P151" s="2"/>
+      <c r="P151" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Q151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18310,13 +18267,11 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X151" s="2"/>
       <c r="Y151" t="s" s="2">
-        <v>529</v>
+        <v>250</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18334,10 +18289,10 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>525</v>
+        <v>251</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>82</v>
@@ -18349,18 +18304,18 @@
         <v>94</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>530</v>
+        <v>73</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18383,16 +18338,18 @@
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>532</v>
+        <v>188</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>533</v>
+        <v>254</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>534</v>
+        <v>255</v>
       </c>
       <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
+      <c r="N152" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>73</v>
       </c>
@@ -18440,7 +18397,7 @@
         <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>531</v>
+        <v>257</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
@@ -18455,18 +18412,18 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>535</v>
+        <v>73</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18477,7 +18434,7 @@
         <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>73</v>
@@ -18489,16 +18446,18 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>537</v>
+        <v>260</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>538</v>
+        <v>261</v>
       </c>
       <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+      <c r="N153" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>73</v>
       </c>
@@ -18546,33 +18505,33 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>536</v>
+        <v>264</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>539</v>
+        <v>73</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18592,19 +18551,23 @@
         <v>73</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>73</v>
       </c>
@@ -18628,13 +18591,11 @@
         <v>73</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X154" s="2"/>
       <c r="Y154" t="s" s="2">
-        <v>73</v>
+        <v>548</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>73</v>
@@ -18652,7 +18613,7 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
@@ -18664,7 +18625,7 @@
         <v>73</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>73</v>
@@ -18673,16 +18634,16 @@
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>154</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -18698,20 +18659,18 @@
         <v>73</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>130</v>
+        <v>550</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
@@ -18760,7 +18719,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>159</v>
+        <v>549</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -18772,1199 +18731,15 @@
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>73</v>
+        <v>552</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P162" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Q162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X162" s="2"/>
-      <c r="Y162" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P164" s="2"/>
-      <c r="Q164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X165" s="2"/>
-      <c r="Y165" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL165" t="s" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P166" s="2"/>
-      <c r="Q166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL166" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -829,7 +829,7 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
+    <t>https://spor.ema.europa.eu/v1/lists/200000000014</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -1134,7 +1134,7 @@
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000000002</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
   </si>
   <si>
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.version</t>
@@ -1264,7 +1264,7 @@
     <t>PackagedProductDefinition.marketingStatus.status.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000072052</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000072052</t>
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus.status.coding.version</t>
@@ -1405,7 +1405,7 @@
     <t>PackagedProductDefinition.package.type.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000073346</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000073346</t>
   </si>
   <si>
     <t>PackagedProductDefinition.package.type.coding.version</t>
@@ -1520,7 +1520,7 @@
     <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000073343</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000073343</t>
   </si>
   <si>
     <t>PackagedProductDefinition.package.shelfLifeStorage.type.coding.version</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4799" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1125,28 +1125,7 @@
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding</t>
   </si>
   <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.system</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.coding.userSelected</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/country-ema-vs</t>
   </si>
   <si>
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction.text</t>
@@ -1196,27 +1175,6 @@
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus.country.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.system</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.marketingStatus.country.coding.userSelected</t>
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus.country.text</t>
@@ -2006,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL155"/>
+  <dimension ref="A1:AL141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7821,13 +7779,11 @@
         <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>73</v>
@@ -7871,7 +7827,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7891,19 +7847,23 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7951,7 +7911,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7963,7 +7923,7 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
@@ -7972,16 +7932,16 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7997,20 +7957,18 @@
         <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -8047,19 +8005,19 @@
         <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -8071,21 +8029,21 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8105,23 +8063,19 @@
         <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
@@ -8130,7 +8084,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -8169,7 +8123,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>153</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8181,7 +8135,7 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -8190,23 +8144,23 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -8215,19 +8169,19 @@
         <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8265,31 +8219,31 @@
         <v>73</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>321</v>
+        <v>159</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>73</v>
@@ -8298,45 +8252,47 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>322</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8385,19 +8341,19 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>73</v>
@@ -8406,12 +8362,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>329</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8419,7 +8375,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>82</v>
@@ -8434,18 +8390,16 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>73</v>
       </c>
@@ -8493,7 +8447,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8514,12 +8468,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8539,23 +8493,19 @@
         <v>73</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
       </c>
@@ -8603,7 +8553,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>342</v>
+        <v>153</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8615,7 +8565,7 @@
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>73</v>
@@ -8624,23 +8574,23 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>343</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8649,23 +8599,21 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8701,31 +8649,31 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -8734,12 +8682,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>350</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8762,16 +8710,20 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
       </c>
@@ -8795,13 +8747,11 @@
         <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>73</v>
@@ -8819,7 +8769,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8834,18 +8784,18 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>372</v>
+        <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>73</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8865,19 +8815,23 @@
         <v>73</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
@@ -8925,7 +8879,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8937,7 +8891,7 @@
         <v>73</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>73</v>
@@ -8946,23 +8900,23 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>73</v>
@@ -8971,20 +8925,18 @@
         <v>73</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>378</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -9021,31 +8973,31 @@
         <v>73</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>159</v>
+        <v>380</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
@@ -9054,48 +9006,44 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>73</v>
       </c>
@@ -9143,19 +9091,19 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>73</v>
@@ -9164,12 +9112,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9177,7 +9125,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>82</v>
@@ -9189,16 +9137,16 @@
         <v>73</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>377</v>
+        <v>151</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>378</v>
+        <v>152</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9249,7 +9197,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>153</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -9261,7 +9209,7 @@
         <v>73</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>73</v>
@@ -9270,23 +9218,23 @@
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>73</v>
@@ -9298,15 +9246,17 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>73</v>
@@ -9343,31 +9293,31 @@
         <v>73</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>73</v>
@@ -9381,11 +9331,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9401,21 +9351,23 @@
         <v>73</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9451,19 +9403,19 @@
         <v>73</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9475,7 +9427,7 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>73</v>
@@ -9484,12 +9436,12 @@
         <v>73</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>154</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9500,7 +9452,7 @@
         <v>74</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>73</v>
@@ -9509,23 +9461,19 @@
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>301</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9573,19 +9521,19 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>73</v>
@@ -9594,23 +9542,23 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -9622,15 +9570,17 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -9667,31 +9617,31 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9705,18 +9655,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9725,21 +9675,23 @@
         <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>73</v>
       </c>
@@ -9748,7 +9700,7 @@
         <v>73</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>73</v>
+        <v>391</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>73</v>
@@ -9775,31 +9727,31 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9808,12 +9760,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9836,20 +9788,18 @@
         <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>73</v>
       </c>
@@ -9858,7 +9808,7 @@
         <v>73</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -9897,7 +9847,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9918,12 +9868,12 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9946,18 +9896,18 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>73</v>
       </c>
@@ -10005,7 +9955,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10026,12 +9976,12 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10054,17 +10004,17 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
@@ -10113,7 +10063,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10134,12 +10084,12 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10162,17 +10112,19 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>188</v>
+        <v>337</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="N76" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10221,7 +10173,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10242,12 +10194,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10270,19 +10222,19 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10331,7 +10283,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10352,12 +10304,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10380,20 +10332,16 @@
         <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>73</v>
       </c>
@@ -10441,7 +10389,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10462,12 +10410,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10490,13 +10438,13 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10547,7 +10495,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10573,7 +10521,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10581,10 +10529,10 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>73</v>
@@ -10599,10 +10547,10 @@
         <v>170</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10629,13 +10577,13 @@
         <v>73</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>73</v>
@@ -10653,13 +10601,13 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>73</v>
@@ -10668,7 +10616,7 @@
         <v>94</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>73</v>
@@ -10679,7 +10627,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10699,23 +10647,25 @@
         <v>73</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>84</v>
+        <v>337</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>151</v>
+        <v>409</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>152</v>
+        <v>410</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="Q81" t="s" s="2">
         <v>73</v>
       </c>
@@ -10759,7 +10709,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>153</v>
+        <v>408</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10771,25 +10721,25 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10805,20 +10755,18 @@
         <v>73</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>130</v>
+        <v>413</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -10855,19 +10803,19 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -10879,21 +10827,21 @@
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>73</v>
+        <v>415</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10901,10 +10849,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>73</v>
@@ -10916,20 +10864,16 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10977,33 +10921,33 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>73</v>
+        <v>419</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>307</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11026,7 +10970,7 @@
         <v>73</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>151</v>
@@ -11109,7 +11053,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11179,16 +11123,16 @@
         <v>73</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>159</v>
@@ -11217,42 +11161,42 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>314</v>
+        <v>138</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11262,7 +11206,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>405</v>
+        <v>73</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -11301,19 +11245,19 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>73</v>
@@ -11322,12 +11266,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>316</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11338,7 +11282,7 @@
         <v>74</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>73</v>
@@ -11350,17 +11294,15 @@
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11409,13 +11351,13 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>73</v>
@@ -11424,18 +11366,18 @@
         <v>94</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>73</v>
+        <v>426</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>322</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11443,7 +11385,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>82</v>
@@ -11458,18 +11400,16 @@
         <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>73</v>
       </c>
@@ -11493,13 +11433,13 @@
         <v>73</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>73</v>
+        <v>430</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>73</v>
@@ -11517,7 +11457,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11532,18 +11472,18 @@
         <v>94</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>73</v>
+        <v>431</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>329</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11563,21 +11503,19 @@
         <v>73</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>73</v>
       </c>
@@ -11625,7 +11563,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11637,7 +11575,7 @@
         <v>73</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>73</v>
@@ -11646,23 +11584,23 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>335</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>73</v>
@@ -11671,23 +11609,21 @@
         <v>73</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>339</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>73</v>
       </c>
@@ -11723,31 +11659,31 @@
         <v>73</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>73</v>
@@ -11756,12 +11692,12 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>343</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11772,7 +11708,7 @@
         <v>74</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>73</v>
@@ -11784,19 +11720,19 @@
         <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>73</v>
@@ -11845,13 +11781,13 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>73</v>
@@ -11866,12 +11802,12 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>350</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11891,16 +11827,16 @@
         <v>73</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>412</v>
+        <v>151</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>413</v>
+        <v>152</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11951,7 +11887,7 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>414</v>
+        <v>153</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -11963,7 +11899,7 @@
         <v>73</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>73</v>
@@ -11972,23 +11908,23 @@
         <v>73</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>73</v>
@@ -11997,18 +11933,20 @@
         <v>73</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>412</v>
+        <v>130</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>73</v>
@@ -12045,31 +11983,31 @@
         <v>73</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>416</v>
+        <v>159</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>73</v>
@@ -12078,12 +12016,12 @@
         <v>73</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12094,7 +12032,7 @@
         <v>74</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>73</v>
@@ -12106,16 +12044,20 @@
         <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>418</v>
+        <v>311</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>73</v>
       </c>
@@ -12124,7 +12066,7 @@
         <v>73</v>
       </c>
       <c r="R94" t="s" s="2">
-        <v>73</v>
+        <v>438</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>73</v>
@@ -12139,13 +12081,13 @@
         <v>73</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>420</v>
+        <v>73</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>421</v>
+        <v>73</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>73</v>
@@ -12163,13 +12105,13 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>417</v>
+        <v>315</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>73</v>
@@ -12178,18 +12120,18 @@
         <v>94</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12212,22 +12154,22 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P95" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>73</v>
       </c>
@@ -12271,7 +12213,7 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -12286,18 +12228,18 @@
         <v>94</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12308,7 +12250,7 @@
         <v>74</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>73</v>
@@ -12320,16 +12262,18 @@
         <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>428</v>
+        <v>325</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>73</v>
       </c>
@@ -12377,13 +12321,13 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>426</v>
+        <v>328</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>73</v>
@@ -12392,18 +12336,18 @@
         <v>94</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>429</v>
+        <v>73</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>73</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12411,7 +12355,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>82</v>
@@ -12426,16 +12370,18 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>431</v>
+        <v>331</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>73</v>
       </c>
@@ -12483,7 +12429,7 @@
         <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>430</v>
+        <v>334</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -12495,21 +12441,21 @@
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>433</v>
+        <v>73</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12529,19 +12475,23 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>188</v>
+        <v>337</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>73</v>
       </c>
@@ -12589,7 +12539,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>153</v>
+        <v>342</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12601,7 +12551,7 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>73</v>
@@ -12610,23 +12560,23 @@
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>154</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12635,21 +12585,23 @@
         <v>73</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>130</v>
+        <v>345</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>73</v>
       </c>
@@ -12697,19 +12649,19 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12718,48 +12670,44 @@
         <v>73</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>129</v>
+        <v>445</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
       </c>
@@ -12807,33 +12755,33 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>292</v>
+        <v>444</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12856,13 +12804,13 @@
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12889,13 +12837,11 @@
         <v>73</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>73</v>
+        <v>452</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>73</v>
@@ -12913,7 +12859,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12928,7 +12874,7 @@
         <v>94</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>73</v>
@@ -12939,7 +12885,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12947,10 +12893,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12965,10 +12911,10 @@
         <v>170</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12998,10 +12944,10 @@
         <v>214</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>215</v>
+        <v>457</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>73</v>
@@ -13019,13 +12965,13 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
@@ -13034,7 +12980,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13045,7 +12991,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13056,7 +13002,7 @@
         <v>74</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>73</v>
@@ -13065,16 +13011,16 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>151</v>
+        <v>461</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>152</v>
+        <v>462</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13125,44 +13071,44 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>153</v>
+        <v>460</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>73</v>
+        <v>463</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -13174,17 +13120,15 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
@@ -13221,31 +13165,31 @@
         <v>73</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -13259,11 +13203,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13279,23 +13223,21 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>303</v>
+        <v>156</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -13343,7 +13285,7 @@
         <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13355,7 +13297,7 @@
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13364,44 +13306,48 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
@@ -13449,19 +13395,19 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>73</v>
@@ -13470,23 +13416,23 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>73</v>
@@ -13495,20 +13441,18 @@
         <v>73</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>130</v>
+        <v>468</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
@@ -13545,31 +13489,31 @@
         <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>159</v>
+        <v>467</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>73</v>
@@ -13578,12 +13522,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13603,23 +13547,19 @@
         <v>73</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>73</v>
       </c>
@@ -13628,7 +13568,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>452</v>
+        <v>73</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13667,7 +13607,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>315</v>
+        <v>153</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13679,7 +13619,7 @@
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
@@ -13688,23 +13628,23 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>73</v>
@@ -13713,19 +13653,19 @@
         <v>73</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -13763,31 +13703,31 @@
         <v>73</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>321</v>
+        <v>159</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>73</v>
@@ -13796,12 +13736,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>322</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13812,7 +13752,7 @@
         <v>74</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>73</v>
@@ -13824,17 +13764,19 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M110" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N110" t="s" s="2">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
@@ -13883,13 +13825,13 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>73</v>
@@ -13904,12 +13846,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13929,21 +13871,19 @@
         <v>73</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13991,7 +13931,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14003,7 +13943,7 @@
         <v>73</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>73</v>
@@ -14012,23 +13952,23 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>335</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>73</v>
@@ -14037,23 +13977,21 @@
         <v>73</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>339</v>
+        <v>156</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>73</v>
       </c>
@@ -14089,31 +14027,31 @@
         <v>73</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>73</v>
@@ -14122,12 +14060,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>343</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14150,19 +14088,19 @@
         <v>83</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>73</v>
@@ -14172,7 +14110,7 @@
         <v>73</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>73</v>
+        <v>476</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>73</v>
@@ -14211,7 +14149,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14232,12 +14170,12 @@
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>350</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14245,7 +14183,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>82</v>
@@ -14260,15 +14198,17 @@
         <v>83</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>459</v>
+        <v>188</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>460</v>
+        <v>318</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -14317,7 +14257,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>458</v>
+        <v>321</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14332,18 +14272,18 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>462</v>
+        <v>73</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14354,7 +14294,7 @@
         <v>74</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>73</v>
@@ -14366,16 +14306,18 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>465</v>
+        <v>325</v>
       </c>
       <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="N115" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>73</v>
       </c>
@@ -14399,11 +14341,13 @@
         <v>73</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X115" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y115" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>73</v>
@@ -14421,13 +14365,13 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>463</v>
+        <v>328</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>73</v>
@@ -14436,18 +14380,18 @@
         <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>467</v>
+        <v>73</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>73</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14458,7 +14402,7 @@
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14470,16 +14414,18 @@
         <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>469</v>
+        <v>331</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>470</v>
+        <v>332</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+      <c r="N116" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>73</v>
       </c>
@@ -14503,13 +14449,13 @@
         <v>73</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>471</v>
+        <v>73</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>472</v>
+        <v>73</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>73</v>
@@ -14527,13 +14473,13 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>468</v>
+        <v>334</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
@@ -14542,18 +14488,18 @@
         <v>94</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>473</v>
+        <v>73</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14564,7 +14510,7 @@
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14576,16 +14522,20 @@
         <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>475</v>
+        <v>338</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>73</v>
       </c>
@@ -14633,33 +14583,33 @@
         <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>474</v>
+        <v>342</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>477</v>
+        <v>73</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14679,19 +14629,23 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14739,7 +14693,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14751,7 +14705,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14760,23 +14714,23 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
@@ -14785,20 +14739,18 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>129</v>
+        <v>483</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>130</v>
+        <v>484</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
@@ -14847,19 +14799,19 @@
         <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>159</v>
+        <v>482</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14868,16 +14820,16 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -14890,26 +14842,22 @@
         <v>73</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>290</v>
+        <v>487</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>73</v>
       </c>
@@ -14957,7 +14905,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>292</v>
+        <v>486</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14969,7 +14917,7 @@
         <v>73</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>73</v>
@@ -14978,12 +14926,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14991,10 +14939,10 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>73</v>
@@ -15006,13 +14954,13 @@
         <v>83</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15063,13 +15011,13 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>73</v>
@@ -15078,7 +15026,7 @@
         <v>94</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>73</v>
@@ -15089,7 +15037,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15100,7 +15048,7 @@
         <v>74</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>73</v>
@@ -15109,16 +15057,16 @@
         <v>73</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>151</v>
+        <v>494</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>152</v>
+        <v>495</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15169,44 +15117,44 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>153</v>
+        <v>493</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>73</v>
+        <v>496</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>73</v>
@@ -15218,17 +15166,15 @@
         <v>73</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
@@ -15265,31 +15211,31 @@
         <v>73</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>73</v>
@@ -15303,11 +15249,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15323,23 +15269,21 @@
         <v>73</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>303</v>
+        <v>156</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>73</v>
       </c>
@@ -15387,7 +15331,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15399,7 +15343,7 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -15408,44 +15352,48 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>73</v>
       </c>
@@ -15493,19 +15441,19 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15514,23 +15462,23 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>73</v>
@@ -15539,20 +15487,18 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>130</v>
+        <v>501</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>73</v>
@@ -15577,57 +15523,57 @@
         <v>73</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>73</v>
+        <v>503</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>73</v>
+        <v>504</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AC126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>159</v>
+        <v>500</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>73</v>
+        <v>505</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15650,20 +15596,16 @@
         <v>83</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>96</v>
+        <v>507</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>311</v>
+        <v>508</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15672,7 +15614,7 @@
         <v>73</v>
       </c>
       <c r="R127" t="s" s="2">
-        <v>490</v>
+        <v>73</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>73</v>
@@ -15711,7 +15653,7 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>315</v>
+        <v>506</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
@@ -15726,18 +15668,18 @@
         <v>94</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>73</v>
+        <v>510</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15748,7 +15690,7 @@
         <v>74</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>73</v>
@@ -15760,17 +15702,15 @@
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>318</v>
+        <v>512</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15819,33 +15759,33 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>321</v>
+        <v>511</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>73</v>
+        <v>514</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>322</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15865,21 +15805,19 @@
         <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>324</v>
+        <v>151</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>325</v>
+        <v>152</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15927,7 +15865,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>328</v>
+        <v>153</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15939,7 +15877,7 @@
         <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>73</v>
@@ -15948,23 +15886,23 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>329</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>73</v>
@@ -15973,21 +15911,21 @@
         <v>73</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>73</v>
       </c>
@@ -16035,19 +15973,19 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>334</v>
+        <v>159</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>73</v>
@@ -16056,47 +15994,47 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>335</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>340</v>
+        <v>132</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>341</v>
+        <v>138</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
@@ -16145,19 +16083,19 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>73</v>
@@ -16166,12 +16104,12 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>343</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16179,7 +16117,7 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>82</v>
@@ -16194,20 +16132,16 @@
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>188</v>
+        <v>519</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>345</v>
+        <v>520</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16255,10 +16189,10 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>349</v>
+        <v>518</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>82</v>
@@ -16270,18 +16204,18 @@
         <v>94</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>73</v>
+        <v>522</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16289,7 +16223,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>82</v>
@@ -16304,13 +16238,13 @@
         <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>497</v>
+        <v>232</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16361,7 +16295,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16376,7 +16310,7 @@
         <v>94</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>73</v>
+        <v>526</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>73</v>
@@ -16387,7 +16321,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16398,7 +16332,7 @@
         <v>74</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>73</v>
@@ -16407,16 +16341,16 @@
         <v>73</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>502</v>
+        <v>152</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16467,19 +16401,19 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>500</v>
+        <v>153</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>73</v>
@@ -16488,16 +16422,16 @@
         <v>73</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16513,18 +16447,20 @@
         <v>73</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>504</v>
+        <v>130</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M135" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>73</v>
@@ -16561,19 +16497,19 @@
         <v>73</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AC135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>503</v>
+        <v>159</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -16585,21 +16521,21 @@
         <v>73</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>506</v>
+        <v>73</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16610,7 +16546,7 @@
         <v>74</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>73</v>
@@ -16622,16 +16558,20 @@
         <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>508</v>
+        <v>239</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16679,33 +16619,33 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>507</v>
+        <v>243</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>510</v>
+        <v>73</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16722,26 +16662,30 @@
         <v>73</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
+      <c r="N137" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O137" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P137" s="2"/>
+      <c r="P137" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Q137" t="s" s="2">
         <v>73</v>
       </c>
@@ -16761,13 +16705,11 @@
         <v>73</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X137" s="2"/>
       <c r="Y137" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>73</v>
@@ -16785,7 +16727,7 @@
         <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
@@ -16797,7 +16739,7 @@
         <v>73</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>73</v>
@@ -16806,23 +16748,23 @@
         <v>73</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>154</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>73</v>
@@ -16831,21 +16773,21 @@
         <v>73</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>73</v>
       </c>
@@ -16893,19 +16835,19 @@
         <v>73</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>73</v>
@@ -16914,47 +16856,45 @@
         <v>73</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>154</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>73</v>
@@ -17003,19 +16943,19 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>73</v>
@@ -17024,12 +16964,12 @@
         <v>73</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>126</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17037,7 +16977,7 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>82</v>
@@ -17052,16 +16992,20 @@
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>515</v>
+        <v>268</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>73</v>
       </c>
@@ -17085,13 +17029,11 @@
         <v>73</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X140" s="2"/>
       <c r="Y140" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>73</v>
@@ -17109,10 +17051,10 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>514</v>
+        <v>273</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>82</v>
@@ -17124,18 +17066,18 @@
         <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>519</v>
+        <v>73</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>73</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17146,7 +17088,7 @@
         <v>74</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>73</v>
@@ -17158,13 +17100,13 @@
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>521</v>
+        <v>73</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17215,13 +17157,13 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>73</v>
@@ -17230,1516 +17172,12 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P146" s="2"/>
-      <c r="Q146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P147" s="2"/>
-      <c r="Q147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P148" s="2"/>
-      <c r="Q148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P151" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Q151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X151" s="2"/>
-      <c r="Y151" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M152" s="2"/>
-      <c r="N152" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P152" s="2"/>
-      <c r="Q152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P153" s="2"/>
-      <c r="Q153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P154" s="2"/>
-      <c r="Q154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X154" s="2"/>
-      <c r="Y154" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL155" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
